--- a/Garden-Wall/Resource/CJHY/MRBK_ADDRESS.xlsx
+++ b/Garden-Wall/Resource/CJHY/MRBK_ADDRESS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>博主</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>和讯博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hexun.com/tenziyanjun/default.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学博士，香港金融机构高层管理人员、首席分析师、投资策划师和风险管理师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐汇金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +343,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,13 +386,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -762,13 +780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1011,13 +1029,13 @@
     </row>
     <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1"/>
     <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -1046,16 +1064,24 @@
       <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1">
@@ -1192,10 +1218,10 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1219,9 +1245,10 @@
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B46" r:id="rId13"/>
     <hyperlink ref="B25" r:id="rId14"/>
+    <hyperlink ref="B26" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>
 
